--- a/reports/team-lead_visits_details_export/visit_details_ntombizodwa-zodwa-dubazana.xlsx
+++ b/reports/team-lead_visits_details_export/visit_details_ntombizodwa-zodwa-dubazana.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D611"/>
+  <dimension ref="A1:D703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13875,6 +13875,2022 @@
         </is>
       </c>
     </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>0010157865883</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>Nanzi Ndlovu</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>9502076311082</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>Sbongiseni Biyela</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>8501070833011</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>Kelebogile Moiloa</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>7609230299084</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>Tshiamo Mosena</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>0411240838082</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>Kelly Khoza</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>7506200452083</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>John Khubeka</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>6802280389084</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>Dinah Dlamini</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>6510070805082</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>Sandile Masina</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>8403166745087</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>Sipho Lehloka</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>9611276745082</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>Thato Mkasibe</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>8304256745084</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>Linda Matshinye</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>7812138446089</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>Sanele Dlungela</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>0309250801080</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>Vuyo Ngakane</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>8709178465087</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>Siphiwe Simelela</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>0202120825082</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>Katleho Khumalo</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>8304256745084</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>Happy Simelela</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>7310102557085</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>Nothulani Thwabanyane</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>71111075620086</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>Turi Mbata</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>8001230337081</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>Ncumi Jabase</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>5610100542082</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>Sylvia Mashele</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>6107300718084</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>Tebogo Thutoa</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>8007070306086</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>Patricia Ngobeni</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>7512050605085</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>Mamosebo Sema</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>6406250748087</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>Nkomi Makoro</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>7710170865080</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>Rose Mkhabela</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>9301247657088</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>Anza Masutha</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>9907205979083</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>Karabo Aphane</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>9902257563087</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>Obakeng Aphane</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>7806137588087</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>Mduduzi Maleka</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>8408133656782</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>Norojane Maleka</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>7809266437087</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>Andile Mashexa</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>8203277382087</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>Katlego Shumayeli</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>9709234663081</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>Boitumelo Mamabolo</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>8410286738087</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>Mpendulo Ntombela</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>9001210823080</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>Maphefo Nkwe</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>0306250862080</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>Lebogang Nguni</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>0204092580080</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>Tshepang Ntshidi</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>0310290802080</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>Karabo Nguni</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>8206265363087</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>Nomasonto Radebe</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>0409250632084</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>Mohau Bareki</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>9601230593084</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>Tshepiso Diamond</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>8202124400084</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>Kamohelo Komeke</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>0506250825080</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>Neo Morongwa</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>8310276236087</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>Zwelibanzi Nkwashu</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>9807296372081</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>Neo Seeco</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>8204273772083</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>Katleho Nteo</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>9812275728073</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>Kgothatso Radebe</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>9903155676083</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>Mbuyiselo Nkuna</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>8302123467082</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>Smangele Mgujwa</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr"/>
+      <c r="D661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>A09253237</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>Killa Mhlanga</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>7004050647085</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>Soso Nkosi</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>7811050977084</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>Fikile Mathibela</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>8111280401081</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>Chokoe Setumu</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>7704080978083</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>Thandeka Khwela</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>6106260929087</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>Keamogetswe Sebekedi</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>9603234647087</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>Simphiwe Mathebula</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>8712306883067</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Nkosi</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>8401255676087</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>Nomfundo Mkhonza</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>0005131139082</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>Lindiwe Mlambo</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>9107125386089</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>Bheki Ngubane</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>9806115287088</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>Malusi Thabethe</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>9812242139082</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>Nelly Dladla</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>0505180133080</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>Njabulo Msimanga</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>0606070587088</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>Nobuhle Bhengu</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>9802146682089</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>Donald Mthembu</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>0510260885080</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>Syabonga Mhlongo</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>0510190163087</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>Noxolo Mvelase</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>9807254362086</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>Pamela Maseko</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>8201224678081</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>Neni Mabaso</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>0004182120782</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>Tshiamo Mabaso</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>0001257145084</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>Nonhle Mbutu</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>0103233152084</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>Kutlwano Kudu</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>0312091530804</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>Tshepo Moalosi</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>0509080127080</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>Akhona Tolo</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>9601230592084</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>Keamogetswe Mothupi</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>0504020368081</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>Ntethelelo Nkosi</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>0510055187080</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>Nana Dlamini</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>0005045631082</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>Ndumiso Nkosi</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>8906225607089</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>Mandla Thusi</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>8702207969088</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>Thabo Seleke</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>9201026386088</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>Bheki Mbulase</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>0209162138082</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>Noluthando Dladla</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>9906026387086</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>Ipeleng Lekalakala</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>9404220219087</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>Thato Radebe</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>0502021511085</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>Nomsa Nyambose</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>9711134462083</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>Gomolemo Pitjeng</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>9302187656783</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>Kearabiloe Ramatlhape</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>8304189918081</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>Sibusiso Mngadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>9804307265086</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>Austin Aphane</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>9712139672082</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>Phemello Aphane</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>Ntombizodwa Zodwa Dubazana</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>9902156978088</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>Ofentse Makwana</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
